--- a/test_accu/attack_dis.xlsx
+++ b/test_accu/attack_dis.xlsx
@@ -196,12 +196,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,378 +485,382 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.235584453360109</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>0.215</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>9.9674628128987003E-2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>0.41099999999999998</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>0.226666863404444</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>0.20100000000000001</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>0.34888893071222199</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>7.6000089704522197E-2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>0.06</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>0.124233492460606</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>0.13900000000000001</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>0.18428719190696</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>4.7E-2</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>9.0250279850495996E-2</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>0.114</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>5.4770042431948399E-2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>3.3073619150725701E-2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
         <v>6.2E-2</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3">
+      <c r="G6" s="2">
+        <v>7.0057864087068406E-2</v>
+      </c>
+      <c r="H6" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>4.8231748361145799E-2</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
         <v>4.7E-2</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
         <v>2.3E-2</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>2.7258907804643701E-2</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>2.4E-2</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>8.2861325178083603E-2</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
         <v>0.373</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>6.8563244682249794E-2</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
         <v>0.156</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.20090161013135699</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>0.16800000000000001</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
         <v>0.40600000000000003</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>4.8087699238015598E-2</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2">
         <v>0.315</v>
       </c>
     </row>

--- a/test_accu/attack_dis.xlsx
+++ b/test_accu/attack_dis.xlsx
@@ -156,15 +156,27 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -187,16 +199,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -496,27 +521,27 @@
     <col min="10" max="10" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -542,7 +567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -574,7 +599,7 @@
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -606,7 +631,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -638,14 +663,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>4.4218475288421003E-2</v>
+      </c>
       <c r="D6" s="2">
         <v>5.2999999999999999E-2</v>
       </c>
@@ -665,8 +692,10 @@
       <c r="J6" s="2">
         <v>5.3999999999999999E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="5"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -694,7 +723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -709,7 +738,9 @@
       <c r="F8" s="2">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <v>2.7946347645799102E-2</v>
+      </c>
       <c r="H8" s="2">
         <v>3.1E-2</v>
       </c>
@@ -718,7 +749,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -746,11 +777,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2">
@@ -776,11 +807,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2">
@@ -806,11 +837,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="2">
@@ -819,7 +850,9 @@
       <c r="D12" s="2">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2">
+        <v>6.7225796568627398E-3</v>
+      </c>
       <c r="F12" s="2">
         <v>0.156</v>
       </c>
@@ -836,11 +869,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="2">
@@ -849,7 +882,7 @@
       <c r="D13" s="2">
         <v>0.16800000000000001</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="2">
         <v>0.40600000000000003</v>
       </c>
@@ -863,6 +896,8 @@
       <c r="J13" s="2">
         <v>0.315</v>
       </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/test_accu/attack_dis.xlsx
+++ b/test_accu/attack_dis.xlsx
@@ -129,14 +129,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -245,7 +245,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -255,7 +255,7 @@
     <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -521,7 +521,7 @@
       <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="4" t="n">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
@@ -560,7 +560,9 @@
       <c r="D11" s="4" t="n">
         <v>0.072</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="n">
+        <v>0.00536994049761605</v>
+      </c>
       <c r="F11" s="4" t="n">
         <v>0.373</v>
       </c>
@@ -581,7 +583,7 @@
       <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="4" t="n">
@@ -613,7 +615,7 @@
       <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="4" t="n">
@@ -622,7 +624,7 @@
       <c r="D13" s="4" t="n">
         <v>0.168</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="4" t="n">
         <v>0.406</v>
       </c>
